--- a/Endpoints documentation table full.xlsx
+++ b/Endpoints documentation table full.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karol\Desktop\Studia\Inżynieria oprogramowania\Bydlac\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kacper/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C164096B-2A72-48C3-93AE-E03F9259D67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09527AD-403C-1048-A339-A0395DE32898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E5A69AC1-71AD-4ED3-AB32-9095263DE435}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="19680" xr2:uid="{E5A69AC1-71AD-4ED3-AB32-9095263DE435}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arkusz1!$A$1:$E$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arkusz1!$A$1:$C$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,23 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
-  <si>
-    <t>Metoda / Zapytanie HTTP</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>Opis</t>
-  </si>
-  <si>
-    <t>Typ ciała zapytania</t>
-  </si>
-  <si>
-    <t>Typ danych w odpowiedzi</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
@@ -95,15 +83,9 @@
     <t>PUT, PATCH</t>
   </si>
   <si>
-    <t>/users/id/update</t>
-  </si>
-  <si>
     <t>Updates user bio and profile_image (Note: email and username cannot be changed once set), permisson: Authenticated</t>
   </si>
   <si>
-    <t>/users/id/delete</t>
-  </si>
-  <si>
     <t>Deletes user, permisson: AdminUser</t>
   </si>
   <si>
@@ -125,24 +107,12 @@
     <t>Returns group with given id, permisson: Authenticated</t>
   </si>
   <si>
-    <t>/groups/create</t>
-  </si>
-  <si>
     <t>Creates new group with data sent in post request, permisson: Authenticated</t>
   </si>
   <si>
-    <t>/groups/id/update</t>
-  </si>
-  <si>
-    <t>Updates group\'s data, permisson: Authenticated</t>
-  </si>
-  <si>
     <t>DELETE</t>
   </si>
   <si>
-    <t>/groups/id/delete</t>
-  </si>
-  <si>
     <t>Deletes group, permisson: Authenticated</t>
   </si>
   <si>
@@ -152,39 +122,21 @@
     <t>Returns list of group members, permisson: Authenticated</t>
   </si>
   <si>
-    <t>/groups/group_id/add-user/user_id</t>
-  </si>
-  <si>
     <t>Adds user with id equal to user_id to the group with id equal to group_id, permisson: Authenticated</t>
   </si>
   <si>
-    <t>/groups/group_id/remove-user/user_id</t>
-  </si>
-  <si>
     <t>Removes user with id equal to user_id to the group with id equal to group_id, permisson: Authenticated</t>
   </si>
   <si>
-    <t>/groups/group_id/change-moderator/user_id</t>
-  </si>
-  <si>
     <t>Changes moderator status of user with id equal to user_id to the group with id equal to group_id, permisson: Authenticated</t>
   </si>
   <si>
-    <t>/groups/group_id/messages/send</t>
-  </si>
-  <si>
     <t>Sends message to the group with id equal to group_id, permisson: Authenticated</t>
   </si>
   <si>
-    <t>/groups/group_id/messages/update/message_id</t>
-  </si>
-  <si>
     <t>Updates message with given message_id, permisson: Authenticated</t>
   </si>
   <si>
-    <t>/groups/group_id/messages/delete/message_id</t>
-  </si>
-  <si>
     <t>Deletes message with given message_id, permisson: Authenticated</t>
   </si>
   <si>
@@ -206,21 +158,12 @@
     <t>Returns event with given id, permisson: Authenticated</t>
   </si>
   <si>
-    <t>/events/id/create</t>
-  </si>
-  <si>
     <t>Creates an event, permisson: Authenticated</t>
   </si>
   <si>
-    <t>/events/id/update</t>
-  </si>
-  <si>
     <t>Updates an event, permisson: Authenticated</t>
   </si>
   <si>
-    <t>/events/id/delete</t>
-  </si>
-  <si>
     <t>Deletes an event, permisson: Authenticated</t>
   </si>
   <si>
@@ -242,21 +185,9 @@
     <t>Retrieves data of a group of the event, permisson: Authenticated</t>
   </si>
   <si>
-    <t>/events/id/add-group</t>
-  </si>
-  <si>
     <t>Creates a group for the event, permisson: Authenticated</t>
   </si>
   <si>
-    <t>/events/id/remove-group</t>
-  </si>
-  <si>
-    <t>Removes a group of the event, permisson: Authenticated</t>
-  </si>
-  <si>
-    <t>/events/id/update-group</t>
-  </si>
-  <si>
     <t>EVENTS</t>
   </si>
   <si>
@@ -267,13 +198,31 @@
   </si>
   <si>
     <t>LOGGING</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Method/Request HTTP</t>
+  </si>
+  <si>
+    <t>Updates group's data, permisson: Authenticated</t>
+  </si>
+  <si>
+    <t>/groups/group_id/user_id</t>
+  </si>
+  <si>
+    <t>/groups/group_id/messages/message_id</t>
+  </si>
+  <si>
+    <t>Gets message with given message id, permisson: Authenticated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,16 +240,36 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -323,16 +292,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -647,499 +642,418 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C3C58B-5FC6-495A-8FCC-AE656392218B}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:E26"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="102.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="102.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E33">
-    <sortCondition ref="B2:B33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C36">
+    <sortCondition ref="B2:B36"/>
   </sortState>
   <mergeCells count="4">
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Endpoints documentation table full.xlsx
+++ b/Endpoints documentation table full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kacper/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karol\Desktop\Studia\Inżynieria oprogramowania\Bydlac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09527AD-403C-1048-A339-A0395DE32898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5637508-1C1C-47E5-B688-D5623256B267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="19680" xr2:uid="{E5A69AC1-71AD-4ED3-AB32-9095263DE435}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{E5A69AC1-71AD-4ED3-AB32-9095263DE435}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t>Returns list of all registered users, permisson: AdminUser</t>
   </si>
   <si>
-    <t>/users/id</t>
-  </si>
-  <si>
     <t>Returns user with given id, permisson: Authenticated</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>Returns list of all groups, permisson: AdminUser</t>
   </si>
   <si>
-    <t>/groups/id</t>
-  </si>
-  <si>
     <t>Returns group with given id, permisson: Authenticated</t>
   </si>
   <si>
@@ -116,9 +110,6 @@
     <t>Deletes group, permisson: Authenticated</t>
   </si>
   <si>
-    <t>/groups/id/members</t>
-  </si>
-  <si>
     <t>Returns list of group members, permisson: Authenticated</t>
   </si>
   <si>
@@ -140,9 +131,6 @@
     <t>Deletes message with given message_id, permisson: Authenticated</t>
   </si>
   <si>
-    <t>/groups/group_id/messages</t>
-  </si>
-  <si>
     <t>Gets all messages sent to group with given group_id, permisson: Authenticated</t>
   </si>
   <si>
@@ -152,9 +140,6 @@
     <t>Gets list of all events, permisson: Authenticated</t>
   </si>
   <si>
-    <t>/events/id</t>
-  </si>
-  <si>
     <t>Returns event with given id, permisson: Authenticated</t>
   </si>
   <si>
@@ -167,21 +152,12 @@
     <t>Deletes an event, permisson: Authenticated</t>
   </si>
   <si>
-    <t>/events/id/join</t>
-  </si>
-  <si>
     <t>User sending request joins event, creates a link between the user and the event, permisson: Authenticated</t>
   </si>
   <si>
-    <t>/events/id/leave</t>
-  </si>
-  <si>
     <t>User sending request leaves event, deletes a link between the user and the event, permisson: Authenticated</t>
   </si>
   <si>
-    <t>/events/id/group</t>
-  </si>
-  <si>
     <t>Retrieves data of a group of the event, permisson: Authenticated</t>
   </si>
   <si>
@@ -209,13 +185,37 @@
     <t>Updates group's data, permisson: Authenticated</t>
   </si>
   <si>
-    <t>/groups/group_id/user_id</t>
-  </si>
-  <si>
-    <t>/groups/group_id/messages/message_id</t>
-  </si>
-  <si>
     <t>Gets message with given message id, permisson: Authenticated</t>
+  </si>
+  <si>
+    <t>/events/{eventId}</t>
+  </si>
+  <si>
+    <t>/events/{eventId}/join</t>
+  </si>
+  <si>
+    <t>/events/{eventId}/leave</t>
+  </si>
+  <si>
+    <t>/events/{eventId}/group</t>
+  </si>
+  <si>
+    <t>/groups/{groupId}</t>
+  </si>
+  <si>
+    <t>/groups/{groupId}/{userId}</t>
+  </si>
+  <si>
+    <t>/groups/{groupId}/members</t>
+  </si>
+  <si>
+    <t>/groups/{groupId}/messages</t>
+  </si>
+  <si>
+    <t>/groups/{groupId}/messages/{messageId}</t>
+  </si>
+  <si>
+    <t>/users/{userId}</t>
   </si>
 </sst>
 </file>
@@ -318,16 +318,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -642,38 +641,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C3C58B-5FC6-495A-8FCC-AE656392218B}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="102.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="102.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -684,7 +683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -695,7 +694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -706,14 +705,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -724,179 +723,179 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -904,146 +903,141 @@
         <v>57</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="C28" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="1" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="1" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C36">

--- a/Endpoints documentation table full.xlsx
+++ b/Endpoints documentation table full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karol\Desktop\Studia\Inżynieria oprogramowania\Bydlac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5637508-1C1C-47E5-B688-D5623256B267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B176F0CB-0532-45DF-82F6-EE03BED44D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{E5A69AC1-71AD-4ED3-AB32-9095263DE435}"/>
   </bookViews>
@@ -203,9 +203,6 @@
     <t>/groups/{groupId}</t>
   </si>
   <si>
-    <t>/groups/{groupId}/{userId}</t>
-  </si>
-  <si>
     <t>/groups/{groupId}/members</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>/users/{userId}</t>
+  </si>
+  <si>
+    <t>/groups/{groupId}/members/{userId}</t>
   </si>
 </sst>
 </file>
@@ -644,7 +644,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:C29"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
@@ -739,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -750,7 +750,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>24</v>
@@ -845,7 +845,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>25</v>
@@ -856,7 +856,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>26</v>
@@ -867,7 +867,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>23</v>
@@ -878,7 +878,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>30</v>
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>27</v>
@@ -900,7 +900,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>48</v>
@@ -911,7 +911,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>29</v>
@@ -922,7 +922,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>28</v>

--- a/Endpoints documentation table full.xlsx
+++ b/Endpoints documentation table full.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kacper/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kacper/InzynieriaOprogramowania/Bydlac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09527AD-403C-1048-A339-A0395DE32898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B32434B-98A5-0440-93B6-5622185D4909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="19680" xr2:uid="{E5A69AC1-71AD-4ED3-AB32-9095263DE435}"/>
   </bookViews>
@@ -80,9 +80,6 @@
     <t>Returns user with given id, permisson: Authenticated</t>
   </si>
   <si>
-    <t>PUT, PATCH</t>
-  </si>
-  <si>
     <t>Updates user bio and profile_image (Note: email and username cannot be changed once set), permisson: Authenticated</t>
   </si>
   <si>
@@ -209,13 +206,16 @@
     <t>Updates group's data, permisson: Authenticated</t>
   </si>
   <si>
-    <t>/groups/group_id/user_id</t>
-  </si>
-  <si>
     <t>/groups/group_id/messages/message_id</t>
   </si>
   <si>
     <t>Gets message with given message id, permisson: Authenticated</t>
+  </si>
+  <si>
+    <t>PATCH</t>
+  </si>
+  <si>
+    <t>/groups/group_id/user/user_id</t>
   </si>
 </sst>
 </file>
@@ -322,12 +322,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -644,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C3C58B-5FC6-495A-8FCC-AE656392218B}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -657,21 +657,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -707,11 +707,11 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -743,36 +743,36 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -780,10 +780,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -791,10 +791,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -802,32 +802,32 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -835,32 +835,32 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -868,10 +868,10 @@
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -879,10 +879,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -890,10 +890,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -901,50 +901,50 @@
         <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -952,10 +952,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -963,32 +963,32 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -996,10 +996,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1007,10 +1007,10 @@
         <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1018,32 +1018,32 @@
         <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="1" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C36">
